--- a/biology/Mycologie/Baeomycetales/Baeomycetales.xlsx
+++ b/biology/Mycologie/Baeomycetales/Baeomycetales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Baeomycetales sont un ordre de champignons lichénisés (lichens) au thalle encroûtant ou squamuleux dans la classe des Lecanoromycetes. La séparation de cet ordre, basée sur plusieurs études de phylogénie moléculaire, est tardive : suggérée en 2002[1], puis confirmée en 2006[2], elle ne fut officialisée qu'en 2007[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Baeomycetales sont un ordre de champignons lichénisés (lichens) au thalle encroûtant ou squamuleux dans la classe des Lecanoromycetes. La séparation de cet ordre, basée sur plusieurs études de phylogénie moléculaire, est tardive : suggérée en 2002, puis confirmée en 2006, elle ne fut officialisée qu'en 2007.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Outline of Ascomycota — 2009[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Outline of Ascomycota — 2009 :
 Anamylopsoraceae
 Baeomycetaceae
 Trapeliaceae</t>
